--- a/DAIL - RIFT/database/DAIL/NSIS installer helper2.xlsx
+++ b/DAIL - RIFT/database/DAIL/NSIS installer helper2.xlsx
@@ -3183,8 +3183,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"  File /oname="""&amp;VLOOKUP(B3,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B3,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Conversations.arc" ".\survivalmode\resources\Conversations.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B3,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B3,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Conversations.arc ".\survivalmode\resources\Conversations.arc"</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3231,8 +3231,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
-        <f t="shared" ref="A6" si="2">"  File /oname="""&amp;VLOOKUP(B6,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B6,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Creatures.arc" ".\survivalmode\resources\Creatures.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B6,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B6,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Creatures.arc ".\survivalmode\resources\Creatures.arc"</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -3280,8 +3280,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
-        <f t="shared" ref="A9" si="3">"  File /oname="""&amp;VLOOKUP(B9,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B9,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Custom.arc" ".\survivalmode\resources\Custom.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B9,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B9,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Custom.arc ".\survivalmode\resources\Custom.arc"</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -3329,8 +3329,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
-        <f t="shared" ref="A12" si="4">"  File /oname="""&amp;VLOOKUP(B12,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B12,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Effects.arc" ".\survivalmode\resources\Effects.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B12,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B12,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Effects.arc ".\survivalmode\resources\Effects.arc"</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -3381,8 +3381,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f t="shared" ref="A15" si="5">"  File /oname="""&amp;VLOOKUP(B15,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B15,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="FX.arc" ".\survivalmode\resources\FX.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B15,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B15,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=FX.arc ".\survivalmode\resources\FX.arc"</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -3430,8 +3430,8 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
-        <f t="shared" ref="A18" si="6">"  File /oname="""&amp;VLOOKUP(B18,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B18,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="ingameui.arc" ".\survivalmode\resources\ingameui.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B18,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B18,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=ingameui.arc ".\survivalmode\resources\ingameui.arc"</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
@@ -3479,8 +3479,8 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
-        <f t="shared" ref="A21" si="7">"  File /oname="""&amp;VLOOKUP(B21,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B21,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Items.arc" ".\survivalmode\resources\Items.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B21,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B21,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Items.arc ".\survivalmode\resources\Items.arc"</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
@@ -3523,8 +3523,8 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f t="shared" ref="A24" si="8">"  File /oname="""&amp;VLOOKUP(B24,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B24,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Level Art.arc" ".\survivalmode\resources\Level Art.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B24,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B24,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Level Art.arc ".\survivalmode\resources\Level Art.arc"</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
@@ -3563,8 +3563,8 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
-        <f t="shared" ref="A27" si="9">"  File /oname="""&amp;VLOOKUP(B27,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B27,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Maps.arc" ".\survivalmode\resources\Maps.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B27,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B27,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Maps.arc ".\survivalmode\resources\Maps.arc"</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -3603,8 +3603,8 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
-        <f t="shared" ref="A30" si="10">"  File /oname="""&amp;VLOOKUP(B30,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B30,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Meshes.arc" ".\survivalmode\resources\Meshes.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B30,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B30,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Meshes.arc ".\survivalmode\resources\Meshes.arc"</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -3643,8 +3643,8 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f t="shared" ref="A33" si="11">"  File /oname="""&amp;VLOOKUP(B33,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B33,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Quests.arc" ".\survivalmode\resources\Quests.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B33,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B33,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Quests.arc ".\survivalmode\resources\Quests.arc"</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
@@ -3683,8 +3683,8 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f t="shared" ref="A36" si="12">"  File /oname="""&amp;VLOOKUP(B36,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B36,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Scripts.arc" ".\survivalmode\resources\Scripts.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B36,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B36,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Scripts.arc ".\survivalmode\resources\Scripts.arc"</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
@@ -3723,8 +3723,8 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
-        <f t="shared" ref="A39" si="13">"  File /oname="""&amp;VLOOKUP(B39,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B39,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Sound.arc" ".\survivalmode\resources\Sound.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B39,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B39,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Sound.arc ".\survivalmode\resources\Sound.arc"</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40">
@@ -3749,7 +3749,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41">
@@ -3762,9 +3762,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="str">
-        <f t="shared" ref="A42" si="14">"  File /oname="""&amp;VLOOKUP(B42,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B42,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Soundeffects.arc" ".\survivalmode\resources\Soundeffects.arc"</v>
+      <c r="A42" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B42,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B42,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Soundeffects.arc ".\survivalmode\resources\Soundeffects.arc"</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44">
@@ -3802,9 +3802,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="str">
-        <f t="shared" ref="A45" si="15">"  File /oname="""&amp;VLOOKUP(B45,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B45,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Sounds.arc" ".\survivalmode\resources\Sounds.arc"</v>
+      <c r="A45" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B45,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B45,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Sounds.arc ".\survivalmode\resources\Sounds.arc"</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B46">
@@ -3829,7 +3829,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47">
@@ -3842,9 +3842,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="str">
-        <f t="shared" ref="A48" si="16">"  File /oname="""&amp;VLOOKUP(B48,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B48,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Textures.arc" ".\survivalmode\resources\Textures.arc"</v>
+      <c r="A48" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B48,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B48,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Textures.arc ".\survivalmode\resources\Textures.arc"</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B49">
@@ -3869,7 +3869,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50">
@@ -3882,9 +3882,9 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="str">
-        <f t="shared" ref="A51" si="17">"  File /oname="""&amp;VLOOKUP(B51,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B51,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="Text_EN.arc" ".\survivalmode\resources\Text_EN.arc"</v>
+      <c r="A51" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B51,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B51,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=Text_EN.arc ".\survivalmode\resources\Text_EN.arc"</v>
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B52">
@@ -3909,7 +3909,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53">
@@ -3922,9 +3922,9 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
-        <f t="shared" ref="A54" si="18">"  File /oname="""&amp;VLOOKUP(B54,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B54,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="UI.arc" ".\survivalmode\resources\UI.arc"</v>
+      <c r="A54" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B54,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B54,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=UI.arc ".\survivalmode\resources\UI.arc"</v>
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B55">
@@ -3949,7 +3949,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56">
@@ -3962,9 +3962,9 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="str">
-        <f t="shared" ref="A57" si="19">"  File /oname="""&amp;VLOOKUP(B57,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B57,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="wanez-dga.arc" ".\survivalmode\resources\wanez-dga.arc"</v>
+      <c r="A57" s="1" t="str">
+        <f>"  File /oname="&amp;VLOOKUP(B57,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B57,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=wanez-dga.arc ".\survivalmode\resources\wanez-dga.arc"</v>
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
@@ -4003,8 +4003,8 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
-        <f t="shared" ref="A60" si="20">"  File /oname="""&amp;VLOOKUP(B60,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B60,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="wanez.arc" ".\survivalmode\resources\wanez.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B60,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B60,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=wanez.arc ".\survivalmode\resources\wanez.arc"</v>
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
@@ -4043,8 +4043,8 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
-        <f t="shared" ref="A63" si="21">"  File /oname="""&amp;VLOOKUP(B63,$D$1:$E$115,2,FALSE)&amp;""" "".\survivalmode\resources\"&amp;VLOOKUP(B63,$D$1:$E$115,2,FALSE)&amp;""""</f>
-        <v xml:space="preserve">  File /oname="XPack.arc" ".\survivalmode\resources\XPack.arc"</v>
+        <f>"  File /oname="&amp;VLOOKUP(B63,$D$1:$E$115,2,FALSE)&amp;" "".\survivalmode\resources\"&amp;VLOOKUP(B63,$D$1:$E$115,2,FALSE)&amp;""""</f>
+        <v xml:space="preserve">  File /oname=XPack.arc ".\survivalmode\resources\XPack.arc"</v>
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
@@ -4079,371 +4079,371 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="D67">
-        <f t="shared" ref="D67:D119" si="22">D66+1</f>
+        <f t="shared" ref="D67:D119" si="2">D66+1</f>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="D68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="D69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="D70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="D71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="D72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="D73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="D74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="D75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="D76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="D77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="D78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="D79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="D80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="D81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="D82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="D83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="D84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="D85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="D86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="D87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="D88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="D89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="D90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="D91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="D92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="D93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="D94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="D95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="D96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="D97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="D98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="D99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="D100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="D101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="D102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="D103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="D104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="D105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="D106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="D107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="D108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="D109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="D110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="D111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="D112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="D113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="D114">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="D115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="D116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="D117">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="D118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="D119">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
     </row>
